--- a/数据整理/stocks/A股/上证主板/600110-诺德股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600110-诺德股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005669</t>
+          <t>519918</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源公用事业行业股票</t>
+          <t>华夏兴和混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7278</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519918</t>
+          <t>005669</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏兴和混合</t>
+          <t>前海开源公用事业行业股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.60</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.44</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3432</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000061</t>
+          <t>003853</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏盛世混合</t>
+          <t>金鹰信息产业股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>15.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5486</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -622,25 +672,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000689</t>
+          <t>519918</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源新经济灵活配置混合</t>
+          <t>华夏兴和混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>82.22</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4409</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519918</t>
+          <t>005669</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏兴和混合</t>
+          <t>前海开源公用事业行业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3030</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005669</t>
+          <t>000061</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源公用事业行业股票</t>
+          <t>华夏盛世混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>81.72</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2717</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -706,25 +786,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003567</t>
+          <t>005885</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏行业景气混合</t>
+          <t>金鹰信息产业股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003853</t>
+          <t>000689</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金鹰信息产业股票A</t>
+          <t>前海开源新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.48</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -762,25 +862,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005885</t>
+          <t>003567</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金鹰信息产业股票C</t>
+          <t>华夏行业景气混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.48</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600110-诺德股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600110-诺德股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,1466 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0938</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5951</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8183</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信生态环境行业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7380</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6946</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3876</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3650</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3601</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3254</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3098</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2997</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>53.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600110-诺德股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600110-诺德股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2360,4 +2361,4650 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H122"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>153.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1095</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0648</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>112.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2921</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>112.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2921</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>63.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9960</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>44.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.8882</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>76.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5784</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.2678</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信生态环境行业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0175</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>43.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5267</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>51.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4152</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1766</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>43.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1408</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9002</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8701</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8571</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7931</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7505</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7303</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>29.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>47.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7279</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6857</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6555</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6520</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6210</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4992</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4603</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4578</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3989</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3707</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3542</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3409</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3405</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3211</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3210</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3168</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3100</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3001</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2950</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2900</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2837</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>58.67</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2789</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2781</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2780</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2766</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2756</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2498</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2456</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2364</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001106</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华商健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>47.88</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>71.04</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>630016</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华商价值共享</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>690006</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>民生加银信用双利债券 - A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>83.69</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>83.69</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>530019</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>建信社会责任混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001781</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>建信现代服务业股票</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>008893</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>创金合信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>690206</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>民生加银信用双利债券 - C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>008894</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>创金合信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600110-诺德股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600110-诺德股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6986,7 +6987,6 @@
           <t>兴全合兴两年封闭运作混合（LOF）C</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
           <t>91.03</t>
@@ -7002,6 +7002,106 @@
       </c>
       <c r="H122" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>121</v>
+      </c>
+      <c r="D2" t="n">
+        <v>53.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.07</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600110-诺德股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600110-诺德股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7015,7 +7016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7026,17 +7027,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7046,14 +7067,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>121</v>
-      </c>
-      <c r="D2" t="n">
-        <v>53.71</v>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2670</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -7062,14 +7105,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.82</v>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信生态环境行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3334</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -7078,14 +7143,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.83</v>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1363</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -7094,13 +7181,759 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>61.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0893</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>56.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9969</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1079</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011793</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>53.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.07</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600110-诺德股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600110-诺德股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7832,7 +7833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7843,17 +7844,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7863,14 +7884,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.29</v>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>112.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8165</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -7879,14 +7922,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>121</v>
-      </c>
-      <c r="D3" t="n">
-        <v>53.71</v>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信生态环境行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9570</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -7895,14 +7960,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.82</v>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8680</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -7911,14 +7998,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.83</v>
+          <t>013175</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4709</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -7927,13 +8036,471 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3513</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013176</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2327</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.359999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>121</v>
+      </c>
+      <c r="D4" t="n">
+        <v>53.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.07</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600110-诺德股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600110-诺德股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519918</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏兴和混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.44</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7278</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.359999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>121</v>
+      </c>
+      <c r="D4" t="n">
+        <v>53.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005669</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源公用事业行业股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3432</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>7</v>
       </c>
+      <c r="D6" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.07</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003853</t>
+          <t>003567</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰信息产业股票A</t>
+          <t>华夏行业景气混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.41</t>
+          <t>112.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.48</t>
+          <t>91.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5486</t>
+          <t>2.8165</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519918</t>
+          <t>001245</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏兴和混合</t>
+          <t>工银瑞信生态环境行业股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>57.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>90.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4409</t>
+          <t>1.9570</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005669</t>
+          <t>009147</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源公用事业行业股票</t>
+          <t>建信新能源行业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>54.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.72</t>
+          <t>87.41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3030</t>
+          <t>1.8680</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000061</t>
+          <t>013175</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏盛世混合</t>
+          <t>海富通碳中和混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>14.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2717</t>
+          <t>0.4709</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -791,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005885</t>
+          <t>530001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金鹰信息产业股票C</t>
+          <t>建信恒久价值混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.48</t>
+          <t>91.57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1428</t>
+          <t>0.3513</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -829,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000689</t>
+          <t>013176</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源新经济灵活配置混合</t>
+          <t>海富通碳中和混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.22</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0771</t>
+          <t>0.2637</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -867,36 +867,264 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003567</t>
+          <t>000592</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏行业景气混合</t>
+          <t>建信改革红利股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>91.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0490</t>
+          <t>0.2327</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +1138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,7 +1159,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -971,22 +1199,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>64.86</t>
+          <t>125.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.83</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.0938</t>
+          <t>4.2670</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -999,36 +1227,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005940</t>
+          <t>001245</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信新能源汽车主题混合C</t>
+          <t>工银瑞信生态环境行业股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>33.44</t>
+          <t>57.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.83</t>
+          <t>94.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5951</t>
+          <t>2.3334</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1037,36 +1265,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>240009</t>
+          <t>005927</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝先进成长混合</t>
+          <t>创金合信新能源汽车主题股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.83</t>
+          <t>52.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.67</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8183</t>
+          <t>2.1363</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1075,36 +1303,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001245</t>
+          <t>005940</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信生态环境行业股票</t>
+          <t>工银瑞信新能源汽车主题混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>61.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7380</t>
+          <t>2.0893</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1113,36 +1341,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000828</t>
+          <t>009147</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰达宏利转型机遇股票</t>
+          <t>建信新能源行业股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.54</t>
+          <t>56.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>89.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6946</t>
+          <t>1.9969</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1151,36 +1379,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010293</t>
+          <t>005928</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华商量化优质精选混合</t>
+          <t>创金合信新能源汽车主题股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.78</t>
+          <t>27.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.76</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3876</t>
+          <t>1.1079</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1189,36 +1417,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>162201</t>
+          <t>519026</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰达宏利成长混合</t>
+          <t>海富通中小盘混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3650</t>
+          <t>0.2426</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1227,36 +1455,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000061</t>
+          <t>008177</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏盛世混合</t>
+          <t>建信高股息主题股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.59</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.67</t>
+          <t>90.79</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3601</t>
+          <t>0.2242</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1265,36 +1493,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003956</t>
+          <t>011146</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方现代教育股票</t>
+          <t>创金合信气候变化责任投资股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.73</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3254</t>
+          <t>0.1719</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1303,36 +1531,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011369</t>
+          <t>007965</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华商均衡成长混合A</t>
+          <t>民生加银品质消费股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>87.82</t>
+          <t>94.92</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3098</t>
+          <t>0.1432</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1341,32 +1569,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005927</t>
+          <t>011793</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创金合信新能源汽车主题股票A</t>
+          <t>建信智能汽车股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>71.64</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2997</t>
+          <t>0.1372</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1379,32 +1607,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001143</t>
+          <t>011503</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华商量化进取灵活配置混合</t>
+          <t>建信智能生活混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2658</t>
+          <t>0.1317</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1417,36 +1645,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010135</t>
+          <t>011429</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>泰达宏利高研发创新6个月持有期混合A</t>
+          <t>前海开源民裕进取混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>89.76</t>
+          <t>86.10</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1761</t>
+          <t>0.1149</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1455,36 +1683,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005928</t>
+          <t>011147</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>创金合信新能源汽车主题股票C</t>
+          <t>创金合信气候变化责任投资股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1617</t>
+          <t>0.0978</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1493,36 +1721,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>501201</t>
+          <t>290014</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+          <t>泰信现代服务业混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>99.91</t>
+          <t>93.62</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1535</t>
+          <t>0.0510</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1531,36 +1759,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001753</t>
+          <t>290008</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>红土创新新兴产业灵活配置混合</t>
+          <t>泰信发展主题混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>93.53</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1485</t>
+          <t>0.0302</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1569,36 +1797,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008009</t>
+          <t>007966</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华商高端装备制造股票</t>
+          <t>民生加银品质消费股票C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>90.24</t>
+          <t>94.92</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1463</t>
+          <t>0.0088</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1607,36 +1835,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>000609</t>
+          <t>001978</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华商新量化灵活配置混合</t>
+          <t>泰信互联网+主题灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>92.59</t>
+          <t>90.05</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1358</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1645,36 +1873,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009055</t>
+          <t>004227</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>圆信永丰大湾区主题混合A</t>
+          <t>泰信鑫利混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>88.70</t>
+          <t>28.02</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.1128</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1683,681 +1911,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>000866</t>
+          <t>004228</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华宝高端制造股票</t>
+          <t>泰信鑫利混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>28.02</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0754</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005821</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>万家新机遇龙头企业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>84.32</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0673</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>011370</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华商均衡成长混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>87.82</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0543</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>010136</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>泰达宏利高研发创新6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>89.76</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0467</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005076</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>创金合信优选回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.17</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0356</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006348</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>银华盛利混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>89.55</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0341</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>011146</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>创金合信气候变化责任投资股票A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.49</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0331</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009056</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>圆信永丰大湾区主题混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>88.70</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0327</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>290008</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>泰信发展主题混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>87.22</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0245</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>004284</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>华宝新优选一年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>53.81</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>001229</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>德邦福鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>001967</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华宝转型升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>92.56</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>400023</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>91.18</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>011147</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>创金合信气候变化责任投资股票C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>91.49</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0175</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>002068</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>91.18</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>002106</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>德邦福鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>290014</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>泰信现代服务业混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>94.97</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>001978</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>泰信互联网+主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>89.93</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7017,7 +6599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7038,7 +6620,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -7078,22 +6660,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>125.87</t>
+          <t>64.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>94.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.2670</t>
+          <t>3.0938</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -7106,36 +6688,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001245</t>
+          <t>005940</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信生态环境行业股票</t>
+          <t>工银瑞信新能源汽车主题混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>57.90</t>
+          <t>33.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>94.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.3334</t>
+          <t>1.5951</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -7144,36 +6726,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005927</t>
+          <t>240009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信新能源汽车主题股票A</t>
+          <t>华宝先进成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>52.49</t>
+          <t>26.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>82.67</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.1363</t>
+          <t>0.8183</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -7182,36 +6764,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005940</t>
+          <t>001245</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信新能源汽车主题混合C</t>
+          <t>工银瑞信生态环境行业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>61.63</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.0893</t>
+          <t>0.7380</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -7220,36 +6802,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009147</t>
+          <t>000828</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信新能源行业股票</t>
+          <t>泰达宏利转型机遇股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>56.41</t>
+          <t>15.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.14</t>
+          <t>92.87</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.9969</t>
+          <t>0.6946</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -7258,36 +6840,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005928</t>
+          <t>010293</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>创金合信新能源汽车主题股票C</t>
+          <t>华商量化优质精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27.22</t>
+          <t>11.78</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>91.76</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.1079</t>
+          <t>0.3876</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -7296,36 +6878,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519026</t>
+          <t>162201</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海富通中小盘混合</t>
+          <t>泰达宏利成长混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>92.10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2426</t>
+          <t>0.3650</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -7334,36 +6916,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008177</t>
+          <t>000061</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>建信高股息主题股票</t>
+          <t>华夏盛世混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>10.59</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>92.67</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2242</t>
+          <t>0.3601</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -7372,36 +6954,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011146</t>
+          <t>003956</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创金合信气候变化责任投资股票A</t>
+          <t>南方现代教育股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>92.73</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1719</t>
+          <t>0.3254</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -7410,36 +6992,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007965</t>
+          <t>011369</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>民生加银品质消费股票A</t>
+          <t>华商均衡成长混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>87.82</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1432</t>
+          <t>0.3098</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -7448,32 +7030,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011793</t>
+          <t>005927</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>建信智能汽车股票</t>
+          <t>创金合信新能源汽车主题股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>71.64</t>
+          <t>93.33</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1372</t>
+          <t>0.2997</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -7486,32 +7068,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011503</t>
+          <t>001143</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>建信智能生活混合</t>
+          <t>华商量化进取灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>91.63</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1317</t>
+          <t>0.2658</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -7524,36 +7106,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011429</t>
+          <t>010135</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>前海开源民裕进取混合</t>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>86.10</t>
+          <t>89.76</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1149</t>
+          <t>0.1761</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -7562,36 +7144,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011147</t>
+          <t>005928</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>创金合信气候变化责任投资股票C</t>
+          <t>创金合信新能源汽车主题股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>93.33</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0978</t>
+          <t>0.1617</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -7600,36 +7182,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>290014</t>
+          <t>501201</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>泰信现代服务业混合</t>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>99.91</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0510</t>
+          <t>0.1535</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -7638,36 +7220,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>290008</t>
+          <t>001753</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>泰信发展主题混合</t>
+          <t>红土创新新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>94.87</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0302</t>
+          <t>0.1485</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -7676,36 +7258,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007966</t>
+          <t>008009</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>民生加银品质消费股票C</t>
+          <t>华商高端装备制造股票</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>90.24</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0088</t>
+          <t>0.1463</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -7714,36 +7296,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001978</t>
+          <t>000609</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>泰信互联网+主题灵活配置混合</t>
+          <t>华商新量化灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>90.05</t>
+          <t>92.59</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0019</t>
+          <t>0.1358</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -7752,36 +7334,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>004227</t>
+          <t>009055</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>泰信鑫利混合A</t>
+          <t>圆信永丰大湾区主题混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>28.02</t>
+          <t>88.70</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.1128</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -7790,35 +7372,681 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>004228</t>
+          <t>000866</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>泰信鑫利混合C</t>
+          <t>华宝高端制造股票</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>28.02</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0754</t>
         </is>
       </c>
       <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>53.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7833,7 +8061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7854,7 +8082,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -7884,36 +8112,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003567</t>
+          <t>003853</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏行业景气混合</t>
+          <t>金鹰信息产业股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>112.21</t>
+          <t>15.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>88.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.8165</t>
+          <t>0.5486</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -7922,36 +8150,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001245</t>
+          <t>519918</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信生态环境行业股票</t>
+          <t>华夏兴和混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>57.90</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.05</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.9570</t>
+          <t>0.4409</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -7960,36 +8188,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009147</t>
+          <t>005669</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信新能源行业股票</t>
+          <t>前海开源公用事业行业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>54.78</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.41</t>
+          <t>81.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.8680</t>
+          <t>0.3030</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -7998,36 +8226,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>013175</t>
+          <t>000061</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海富通碳中和混合A</t>
+          <t>华夏盛世混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.27</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>90.21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4709</t>
+          <t>0.2717</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -8036,36 +8264,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>530001</t>
+          <t>005885</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信恒久价值混合</t>
+          <t>金鹰信息产业股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.57</t>
+          <t>88.48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3513</t>
+          <t>0.1428</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -8074,36 +8302,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>013176</t>
+          <t>000689</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海富通碳中和混合C</t>
+          <t>前海开源新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>82.22</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2637</t>
+          <t>0.0771</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -8112,264 +8340,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000592</t>
+          <t>003567</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信改革红利股票</t>
+          <t>华夏行业景气混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>89.87</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2327</t>
+          <t>0.0490</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008177</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>建信高股息主题股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.26</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1618</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001858</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>建信鑫利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>85.72</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1412</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>290014</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>泰信现代服务业混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>81.14</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0470</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005009</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>申万菱信行业轮动股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.25</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0264</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007965</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>民生加银品质消费股票A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.39</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0137</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007966</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>民生加银品质消费股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>88.39</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -8383,128 +8383,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.359999999999999</v>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7278</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>121</v>
-      </c>
-      <c r="D4" t="n">
-        <v>53.71</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>37</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.82</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3432</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.07</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600110-诺德股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600110-诺德股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>8.359999999999999</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>15.29</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>53.71</v>
+        <v>15.29</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
-        <v>10.82</v>
+        <v>53.71</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>1.83</v>
+        <v>10.82</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.07</v>
       </c>
     </row>
@@ -583,6 +600,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1132,7 +1319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1948,7 +2135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6593,7 +6780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8055,7 +8242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8377,7 +8564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
